--- a/tests/test_files/simple1.xlsx
+++ b/tests/test_files/simple1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorweddle/Research/confluence/tests/test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/workspace/confluence/tests/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F80A9-6E0E-BD46-B372-F1A8CED1364A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF7415-DDFE-544E-9318-89873BB97A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1180" windowWidth="15380" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>foo</t>
   </si>
   <si>
     <t>bar</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -450,16 +456,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
